--- a/xlsx/博士_intext.xlsx
+++ b/xlsx/博士_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>博士</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB_(%E5%AE%98%E8%81%B7)</t>
   </si>
   <si>
-    <t>博士 (官職)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_博士</t>
+    <t>博士 (官职)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Doctor_of_Divinity</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>哲學博士</t>
+    <t>哲学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>自然科學博士</t>
+    <t>自然科学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%8D%9A%E5%A3%AB</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>醫學博士</t>
+    <t>医学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8D%9A%E5%A3%AB</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AB%E5%82%85</t>
   </si>
   <si>
-    <t>師傅</t>
+    <t>师傅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%B4%84%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>英國約克大學</t>
+    <t>英国约克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>英聯邦</t>
+    <t>英联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B8%E5%AD%90</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E7%B6%93</t>
   </si>
   <si>
-    <t>易經</t>
+    <t>易经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E7%B6%93</t>
   </si>
   <si>
-    <t>書經</t>
+    <t>书经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E7%B6%93</t>
   </si>
   <si>
-    <t>詩經</t>
+    <t>诗经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BC%E7%BB%8F</t>
@@ -179,15 +179,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E7%B6%93</t>
   </si>
   <si>
-    <t>春秋經</t>
+    <t>春秋经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>經學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%81%8C</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>医学博士</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E7%BE%BD</t>
   </si>
   <si>
@@ -221,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E7%9C%81%E6%9B%BE</t>
@@ -233,37 +227,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%8C%B6%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中國茶文化</t>
+    <t>中国茶文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E9%A4%A8</t>
   </si>
   <si>
-    <t>茶館</t>
+    <t>茶馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E6%8A%80</t>
   </si>
   <si>
-    <t>雜技</t>
+    <t>杂技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E5%84%80%E5%BC%8F</t>
   </si>
   <si>
-    <t>茶儀式</t>
+    <t>茶仪式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%97%9D</t>
   </si>
   <si>
-    <t>茶藝</t>
+    <t>茶艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%BE%8C</t>
   </si>
   <si>
-    <t>博士後</t>
+    <t>博士后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%AD%A6%E4%BD%8D</t>
@@ -275,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>專科學校</t>
+    <t>专科学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>副學士</t>
+    <t>副学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>副學位</t>
+    <t>副学位</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Graduate_certificate</t>
@@ -311,43 +305,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E8%81%B7%E5%B0%88%E7%8F%AD</t>
   </si>
   <si>
-    <t>在職專班</t>
+    <t>在职专班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>學士</t>
+    <t>学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%9C%E6%8E%A5%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>銜接學士</t>
+    <t>衔接学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>雙學士</t>
+    <t>双学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%81%AF%E5%AD%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>雙聯學制</t>
+    <t>双联学制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%81%AF%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>三聯學位</t>
+    <t>三联学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB%E5%BE%8C</t>
   </si>
   <si>
-    <t>學士後</t>
+    <t>学士后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%95%E5%A3%AB</t>
@@ -371,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E9%80%A0%E6%96%87%E6%86%91</t>
   </si>
   <si>
-    <t>深造文憑</t>
+    <t>深造文凭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Diplom</t>
@@ -389,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>文學碩士</t>
+    <t>文学硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>理學碩士</t>
+    <t>理学硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%BA%A7%E7%AE%A1%E7%90%86%E4%BA%BA%E5%91%98%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A1%95%E5%A3%AB</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>研究碩士</t>
+    <t>研究硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%8D%9A%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>全博士學位</t>
+    <t>全博士学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%AE%B8%E4%BB%BB%E6%95%99%E8%B5%84%E6%A0%BC</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9B%E5%BA%A7%E6%95%99%E6%8E%88</t>
   </si>
   <si>
-    <t>講座教授</t>
+    <t>讲座教授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%88%E8%BA%AB%E6%95%99%E6%8E%88</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1744,7 +1738,7 @@
         <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1770,10 +1764,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1799,10 +1793,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1828,10 +1822,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1857,10 +1851,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1886,10 +1880,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>27</v>
@@ -1915,10 +1909,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1944,10 +1938,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1973,10 +1967,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2002,10 +1996,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2031,10 +2025,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2060,10 +2054,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2089,10 +2083,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2147,10 +2141,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2176,10 +2170,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2205,10 +2199,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2234,10 +2228,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2263,10 +2257,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2292,10 +2286,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2321,10 +2315,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2350,10 +2344,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2379,10 +2373,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2408,10 +2402,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
@@ -2437,10 +2431,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2466,10 +2460,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2495,10 +2489,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2524,10 +2518,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2553,10 +2547,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2582,10 +2576,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2611,10 +2605,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2640,10 +2634,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2669,10 +2663,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2698,10 +2692,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2727,10 +2721,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2756,10 +2750,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2785,10 +2779,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2814,10 +2808,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2843,10 +2837,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2872,10 +2866,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2901,10 +2895,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2930,10 +2924,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2959,10 +2953,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2988,10 +2982,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3017,10 +3011,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3046,10 +3040,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3075,10 +3069,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3104,10 +3098,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3133,10 +3127,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3162,10 +3156,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3191,10 +3185,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3220,10 +3214,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3249,10 +3243,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3278,10 +3272,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3307,10 +3301,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
